--- a/RUDN/Importance/Varible_f_class_in_Eastern Europe.xlsx
+++ b/RUDN/Importance/Varible_f_class_in_Eastern Europe.xlsx
@@ -1551,7 +1551,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>739.9854933149488</v>
+        <v>739.9854933151213</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>370.0002093998177</v>
+        <v>370.0002093990332</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>328.164995910329</v>
+        <v>328.1649959103223</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1595,7 +1595,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>235.8251121512831</v>
+        <v>235.8251121512824</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>212.6749822699106</v>
+        <v>212.6749822698702</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>211.6084055513486</v>
+        <v>211.6084055513455</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>185.6677867949983</v>
+        <v>185.6677867949732</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1705,7 +1705,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>153.6210650254444</v>
+        <v>153.6210650254466</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>136.6816646719635</v>
+        <v>136.6816646719623</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1727,7 +1727,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>127.0754400885242</v>
+        <v>127.0754400885496</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>119.8298173027802</v>
+        <v>119.8298173027811</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>115.2264528075643</v>
+        <v>115.2264528075633</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>113.287987094248</v>
+        <v>113.2879870942479</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1793,7 +1793,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>113.287987094248</v>
+        <v>113.2879870942479</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>102.6297839958267</v>
+        <v>102.6297839958079</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1826,7 +1826,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>102.6297839958267</v>
+        <v>102.6297839958079</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>89.80261728239157</v>
+        <v>89.80261728238641</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1914,7 +1914,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>66.29697505325674</v>
+        <v>66.29697505325734</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1958,7 +1958,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>63.88271141711154</v>
+        <v>63.88271141711155</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>63.88164468555918</v>
+        <v>63.88164468555901</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>63.81406305412676</v>
+        <v>63.81406305412681</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>63.75542967251872</v>
+        <v>63.75542967251877</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>63.70963636595778</v>
+        <v>63.70963636595776</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2024,7 +2024,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>63.70060229535627</v>
+        <v>63.70060229535629</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2079,7 +2079,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>63.20752800660539</v>
+        <v>63.20752800658857</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>63.10111766748675</v>
+        <v>63.1011176674867</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2156,7 +2156,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>63.00105313451978</v>
+        <v>63.00105313451979</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>62.65149750414016</v>
+        <v>62.65149750414017</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>61.6188928962762</v>
+        <v>61.61889289627617</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>61.60091787895373</v>
+        <v>61.60091787895375</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>55.47357762300864</v>
+        <v>55.47357762300881</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2255,7 +2255,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>53.78897206730153</v>
+        <v>53.78897206728853</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>47.974615519083</v>
+        <v>47.97461551908469</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>47.84175065979066</v>
+        <v>47.84175065979176</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2354,7 +2354,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>47.1797508384992</v>
+        <v>47.17975083849827</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2387,7 +2387,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>45.98725165300494</v>
+        <v>45.98725165300498</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>40.4734485622217</v>
+        <v>40.47344856222169</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2464,7 +2464,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>38.88253166189368</v>
+        <v>38.88253166189373</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>38.55830150863702</v>
+        <v>38.55830150863682</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2486,7 +2486,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>37.24769627631115</v>
+        <v>37.2476962763109</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>34.71247325599419</v>
+        <v>34.71247325599344</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>34.66681526360552</v>
+        <v>34.66681526360566</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>34.35476721290734</v>
+        <v>34.35476721295751</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>33.9373235854455</v>
+        <v>33.93732358544474</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>33.9373235854417</v>
+        <v>33.93732358544102</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2585,7 +2585,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>31.75635335777021</v>
+        <v>31.75635335777038</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2607,7 +2607,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>29.65405092344857</v>
+        <v>29.65405092344873</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>29.65405092344857</v>
+        <v>29.65405092344873</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>27.89927041918794</v>
+        <v>27.8992704191887</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2706,7 +2706,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>25.80196456448968</v>
+        <v>25.8019645644874</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>25.39942627700344</v>
+        <v>25.39942627700341</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>24.74609006318377</v>
+        <v>24.74609006318378</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>24.66536026068412</v>
+        <v>24.6653602606841</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>24.51502005920618</v>
+        <v>24.51502005920619</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2816,7 +2816,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>24.31302942542212</v>
+        <v>24.31302942542329</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2827,7 +2827,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>24.25683394126441</v>
+        <v>24.25683394126438</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>24.00522581078761</v>
+        <v>24.00522581078759</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>24.00083006254827</v>
+        <v>24.00083006254829</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>24.00083006254827</v>
+        <v>24.00083006254829</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>23.51252444132</v>
+        <v>23.51252444132001</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>22.78293423597124</v>
+        <v>22.78293423597123</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>22.75563753989939</v>
+        <v>22.7556375398994</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>22.67169119130664</v>
+        <v>22.67169119130662</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -3036,7 +3036,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>22.63746955239964</v>
+        <v>22.63746955239963</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -3135,7 +3135,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>22.3240749784352</v>
+        <v>22.32407497843517</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -3168,7 +3168,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>22.23297988938502</v>
+        <v>22.23297988938488</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -3190,7 +3190,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>22.03098857709307</v>
+        <v>22.03098857709308</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -3212,7 +3212,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>21.98529628424207</v>
+        <v>21.98529628424247</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3223,7 +3223,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>21.95678516340792</v>
+        <v>21.95678516340791</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>21.62006227480237</v>
+        <v>21.62006227480238</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>21.58499707592449</v>
+        <v>21.5849970759245</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>21.50716224690733</v>
+        <v>21.50716224690735</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3443,7 +3443,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>21.42247126695057</v>
+        <v>21.42247126695055</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>21.28790519868758</v>
+        <v>21.28790519868756</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -3531,7 +3531,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>21.15057008087518</v>
+        <v>21.15057008087516</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -3564,7 +3564,7 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>20.99188628305095</v>
+        <v>20.99188628305097</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -3641,7 +3641,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>20.83638085201339</v>
+        <v>20.83638085201338</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>20.83485186102767</v>
+        <v>20.83485186102766</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>20.74344189995035</v>
+        <v>20.74344189995033</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -3817,7 +3817,7 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>20.20710105215395</v>
+        <v>20.20710105215393</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>20.16885977007399</v>
+        <v>20.168859770074</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -3883,7 +3883,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>19.96792268980187</v>
+        <v>19.96792268980188</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>17.94054528361775</v>
+        <v>17.94054528377636</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>17.71736182221122</v>
+        <v>17.71736182221088</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -4125,7 +4125,7 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>17.68636050895367</v>
+        <v>17.68636050895465</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -4158,7 +4158,7 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>17.41727098426292</v>
+        <v>17.4172709842627</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -4202,7 +4202,7 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>17.15273790853702</v>
+        <v>17.15273790853701</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>16.99708128613232</v>
+        <v>16.99708128609919</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -4356,7 +4356,7 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>15.93807406564805</v>
+        <v>15.93807406564804</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -4521,7 +4521,7 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>14.475653653705</v>
+        <v>14.47565365370646</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -4532,7 +4532,7 @@
         <v>273</v>
       </c>
       <c r="B273">
-        <v>14.46534968369767</v>
+        <v>14.46534968372336</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -4543,7 +4543,7 @@
         <v>274</v>
       </c>
       <c r="B274">
-        <v>14.44777625005639</v>
+        <v>14.44777625005686</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -4565,7 +4565,7 @@
         <v>276</v>
       </c>
       <c r="B276">
-        <v>14.30053032529883</v>
+        <v>14.30053032529885</v>
       </c>
       <c r="C276">
         <v>0</v>
@@ -4576,7 +4576,7 @@
         <v>277</v>
       </c>
       <c r="B277">
-        <v>14.12725925233274</v>
+        <v>14.12725925233593</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -4653,7 +4653,7 @@
         <v>284</v>
       </c>
       <c r="B284">
-        <v>13.71937170078053</v>
+        <v>13.71937170078055</v>
       </c>
       <c r="C284">
         <v>1e-05</v>
@@ -4664,7 +4664,7 @@
         <v>285</v>
       </c>
       <c r="B285">
-        <v>13.71517644598114</v>
+        <v>13.71517644598113</v>
       </c>
       <c r="C285">
         <v>1e-05</v>
@@ -4686,7 +4686,7 @@
         <v>287</v>
       </c>
       <c r="B287">
-        <v>13.09667606701466</v>
+        <v>13.09667606701464</v>
       </c>
       <c r="C287">
         <v>1e-05</v>
@@ -4697,7 +4697,7 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>13.04923263395279</v>
+        <v>13.04923263407243</v>
       </c>
       <c r="C288">
         <v>1e-05</v>
@@ -4818,7 +4818,7 @@
         <v>299</v>
       </c>
       <c r="B299">
-        <v>11.87690812010853</v>
+        <v>11.87690812010926</v>
       </c>
       <c r="C299">
         <v>2e-05</v>
@@ -4829,7 +4829,7 @@
         <v>300</v>
       </c>
       <c r="B300">
-        <v>11.76917347296618</v>
+        <v>11.76917347296145</v>
       </c>
       <c r="C300">
         <v>3e-05</v>
@@ -4840,7 +4840,7 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>11.28227350880161</v>
+        <v>11.28227350880212</v>
       </c>
       <c r="C301">
         <v>4e-05</v>
@@ -4862,7 +4862,7 @@
         <v>303</v>
       </c>
       <c r="B303">
-        <v>10.57369108523999</v>
+        <v>10.5736910852408</v>
       </c>
       <c r="C303">
         <v>6.999999999999999e-05</v>
@@ -4884,7 +4884,7 @@
         <v>305</v>
       </c>
       <c r="B305">
-        <v>10.08013915342899</v>
+        <v>10.0801391534288</v>
       </c>
       <c r="C305">
         <v>0.0001</v>
@@ -4895,7 +4895,7 @@
         <v>306</v>
       </c>
       <c r="B306">
-        <v>10.07703979288409</v>
+        <v>10.07703979288384</v>
       </c>
       <c r="C306">
         <v>0.0001</v>
@@ -4906,7 +4906,7 @@
         <v>307</v>
       </c>
       <c r="B307">
-        <v>9.842706349702583</v>
+        <v>9.842706349698371</v>
       </c>
       <c r="C307">
         <v>0.00012</v>
@@ -4917,7 +4917,7 @@
         <v>308</v>
       </c>
       <c r="B308">
-        <v>9.703718959565338</v>
+        <v>9.703718959565331</v>
       </c>
       <c r="C308">
         <v>0.00014</v>
@@ -4928,7 +4928,7 @@
         <v>309</v>
       </c>
       <c r="B309">
-        <v>9.702413876308322</v>
+        <v>9.702413876308313</v>
       </c>
       <c r="C309">
         <v>0.00014</v>
@@ -4939,7 +4939,7 @@
         <v>310</v>
       </c>
       <c r="B310">
-        <v>9.667442789385907</v>
+        <v>9.667442789385911</v>
       </c>
       <c r="C310">
         <v>0.00014</v>
@@ -4961,7 +4961,7 @@
         <v>312</v>
       </c>
       <c r="B312">
-        <v>9.588339912504603</v>
+        <v>9.588339912504612</v>
       </c>
       <c r="C312">
         <v>0.00015</v>
@@ -4972,7 +4972,7 @@
         <v>313</v>
       </c>
       <c r="B313">
-        <v>9.54409943462819</v>
+        <v>9.544099434628187</v>
       </c>
       <c r="C313">
         <v>0.00016</v>
@@ -4983,7 +4983,7 @@
         <v>314</v>
       </c>
       <c r="B314">
-        <v>9.533565078347639</v>
+        <v>9.53356507834763</v>
       </c>
       <c r="C314">
         <v>0.00016</v>
@@ -4994,7 +4994,7 @@
         <v>315</v>
       </c>
       <c r="B315">
-        <v>9.529984406126387</v>
+        <v>9.529984406126374</v>
       </c>
       <c r="C315">
         <v>0.00016</v>
@@ -5005,7 +5005,7 @@
         <v>316</v>
       </c>
       <c r="B316">
-        <v>9.513919850729605</v>
+        <v>9.513919850729614</v>
       </c>
       <c r="C316">
         <v>0.00016</v>
@@ -5016,7 +5016,7 @@
         <v>317</v>
       </c>
       <c r="B317">
-        <v>9.486436460281634</v>
+        <v>9.486436460281645</v>
       </c>
       <c r="C317">
         <v>0.00017</v>
@@ -5038,7 +5038,7 @@
         <v>319</v>
       </c>
       <c r="B319">
-        <v>9.425278280463644</v>
+        <v>9.425278280463653</v>
       </c>
       <c r="C319">
         <v>0.00018</v>
@@ -5071,7 +5071,7 @@
         <v>322</v>
       </c>
       <c r="B322">
-        <v>9.349565879690163</v>
+        <v>9.349565879690152</v>
       </c>
       <c r="C322">
         <v>0.00019</v>
@@ -5082,7 +5082,7 @@
         <v>323</v>
       </c>
       <c r="B323">
-        <v>9.33633239850592</v>
+        <v>9.336332398505917</v>
       </c>
       <c r="C323">
         <v>0.00019</v>
@@ -5104,7 +5104,7 @@
         <v>325</v>
       </c>
       <c r="B325">
-        <v>9.03297349183782</v>
+        <v>9.032973491834831</v>
       </c>
       <c r="C325">
         <v>0.00025</v>
@@ -5137,7 +5137,7 @@
         <v>328</v>
       </c>
       <c r="B328">
-        <v>8.490075195011819</v>
+        <v>8.490075195016297</v>
       </c>
       <c r="C328">
         <v>0.00039</v>
@@ -5225,7 +5225,7 @@
         <v>336</v>
       </c>
       <c r="B336">
-        <v>7.13499616075092</v>
+        <v>7.134996160750923</v>
       </c>
       <c r="C336">
         <v>0.00126</v>
@@ -5280,7 +5280,7 @@
         <v>341</v>
       </c>
       <c r="B341">
-        <v>6.859052477176752</v>
+        <v>6.859052477176757</v>
       </c>
       <c r="C341">
         <v>0.00161</v>
@@ -5291,7 +5291,7 @@
         <v>342</v>
       </c>
       <c r="B342">
-        <v>6.85410837921239</v>
+        <v>6.854108379212392</v>
       </c>
       <c r="C342">
         <v>0.00162</v>
@@ -5335,7 +5335,7 @@
         <v>346</v>
       </c>
       <c r="B346">
-        <v>6.540455104152827</v>
+        <v>6.540455104152818</v>
       </c>
       <c r="C346">
         <v>0.00213</v>
@@ -5357,7 +5357,7 @@
         <v>348</v>
       </c>
       <c r="B348">
-        <v>6.506334717594886</v>
+        <v>6.506334717594887</v>
       </c>
       <c r="C348">
         <v>0.0022</v>
@@ -5368,7 +5368,7 @@
         <v>349</v>
       </c>
       <c r="B349">
-        <v>6.506149047383619</v>
+        <v>6.506149047383611</v>
       </c>
       <c r="C349">
         <v>0.0022</v>
@@ -5390,7 +5390,7 @@
         <v>351</v>
       </c>
       <c r="B351">
-        <v>6.427070383940711</v>
+        <v>6.427070383940706</v>
       </c>
       <c r="C351">
         <v>0.00236</v>
@@ -5423,7 +5423,7 @@
         <v>354</v>
       </c>
       <c r="B354">
-        <v>6.329535271131155</v>
+        <v>6.329535271170291</v>
       </c>
       <c r="C354">
         <v>0.00257</v>
@@ -5467,7 +5467,7 @@
         <v>358</v>
       </c>
       <c r="B358">
-        <v>6.312502674496473</v>
+        <v>6.31250267449647</v>
       </c>
       <c r="C358">
         <v>0.00261</v>
@@ -5478,7 +5478,7 @@
         <v>359</v>
       </c>
       <c r="B359">
-        <v>6.312500672988149</v>
+        <v>6.312500672988142</v>
       </c>
       <c r="C359">
         <v>0.00261</v>
@@ -5489,7 +5489,7 @@
         <v>360</v>
       </c>
       <c r="B360">
-        <v>6.3125000713914</v>
+        <v>6.312500071391388</v>
       </c>
       <c r="C360">
         <v>0.00261</v>
@@ -5544,7 +5544,7 @@
         <v>365</v>
       </c>
       <c r="B365">
-        <v>6.071786574743178</v>
+        <v>6.071786574743177</v>
       </c>
       <c r="C365">
         <v>0.00324</v>
@@ -5566,7 +5566,7 @@
         <v>367</v>
       </c>
       <c r="B367">
-        <v>5.974688663888976</v>
+        <v>5.974688663888979</v>
       </c>
       <c r="C367">
         <v>0.00353</v>
@@ -5577,7 +5577,7 @@
         <v>368</v>
       </c>
       <c r="B368">
-        <v>5.945989411820092</v>
+        <v>5.945989411820093</v>
       </c>
       <c r="C368">
         <v>0.00362</v>
@@ -5588,7 +5588,7 @@
         <v>369</v>
       </c>
       <c r="B369">
-        <v>5.935682834964616</v>
+        <v>5.935682834964614</v>
       </c>
       <c r="C369">
         <v>0.00365</v>
@@ -5621,7 +5621,7 @@
         <v>372</v>
       </c>
       <c r="B372">
-        <v>5.811096135305386</v>
+        <v>5.811096135305385</v>
       </c>
       <c r="C372">
         <v>0.00409</v>
@@ -5632,7 +5632,7 @@
         <v>373</v>
       </c>
       <c r="B373">
-        <v>5.79237529118111</v>
+        <v>5.792375291180711</v>
       </c>
       <c r="C373">
         <v>0.00415</v>
@@ -5654,7 +5654,7 @@
         <v>375</v>
       </c>
       <c r="B375">
-        <v>5.508372968068701</v>
+        <v>5.5083729680687</v>
       </c>
       <c r="C375">
         <v>0.00536</v>
@@ -5676,7 +5676,7 @@
         <v>377</v>
       </c>
       <c r="B377">
-        <v>5.379546442706255</v>
+        <v>5.379546442706259</v>
       </c>
       <c r="C377">
         <v>0.00602</v>
@@ -5687,7 +5687,7 @@
         <v>378</v>
       </c>
       <c r="B378">
-        <v>5.353400798021199</v>
+        <v>5.353400798021198</v>
       </c>
       <c r="C378">
         <v>0.00617</v>
@@ -5698,7 +5698,7 @@
         <v>379</v>
       </c>
       <c r="B379">
-        <v>5.344540427317632</v>
+        <v>5.344540427317631</v>
       </c>
       <c r="C379">
         <v>0.00622</v>
@@ -5731,7 +5731,7 @@
         <v>382</v>
       </c>
       <c r="B382">
-        <v>4.960571315625159</v>
+        <v>4.960571315625175</v>
       </c>
       <c r="C382">
         <v>0.00881</v>
@@ -5742,7 +5742,7 @@
         <v>383</v>
       </c>
       <c r="B383">
-        <v>4.95908908082248</v>
+        <v>4.959089080822504</v>
       </c>
       <c r="C383">
         <v>0.00882</v>
@@ -5753,7 +5753,7 @@
         <v>384</v>
       </c>
       <c r="B384">
-        <v>4.957287264879635</v>
+        <v>4.957287264879628</v>
       </c>
       <c r="C384">
         <v>0.008840000000000001</v>
@@ -5764,7 +5764,7 @@
         <v>385</v>
       </c>
       <c r="B385">
-        <v>4.95516780261992</v>
+        <v>4.955167802619913</v>
       </c>
       <c r="C385">
         <v>0.00885</v>
@@ -5775,7 +5775,7 @@
         <v>386</v>
       </c>
       <c r="B386">
-        <v>4.942428836779132</v>
+        <v>4.942428836775956</v>
       </c>
       <c r="C386">
         <v>0.008959999999999999</v>
